--- a/docs/data-cleaning-requests/modeling/mizzou.xlsx
+++ b/docs/data-cleaning-requests/modeling/mizzou.xlsx
@@ -368,92 +368,92 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.025
-(0.109)</t>
+          <t>0.019**
+(1.554)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.166*
-(0.099)</t>
+          <t>0.002***
+(1.414)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.17***
-(0.05)</t>
+          <t>0.265**
+(0.654)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.111**
-(0.049)</t>
+          <t>0.128***
+(0.619)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.024
-(0.095)</t>
+          <t>0.011***
+(1.318)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.132
-(0.092)</t>
+          <t>0.004***
+(1.284)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.126***
-(0.035)</t>
+          <t>0.149***
+(0.455)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.14***
-(0.035)</t>
+          <t>0.184***
+(0.437)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.074
-(0.106)</t>
+          <t>0.035**
+(1.487)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-0.192**
-(0.074)</t>
+          <t>0.001***
+(1.137)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.211***
-(0.046)</t>
+          <t>0.441
+(0.579)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.049
-(0.032)</t>
+          <t>0.058***
+(0.42)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.045
-(0.089)</t>
+          <t>0.029***
+(1.233)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.162**
-(0.067)</t>
+          <t>0.002***
+(1.016)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.179***
-(0.022)</t>
+          <t>0.308***
+(0.267)</t>
         </is>
       </c>
     </row>
@@ -465,50 +465,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.138**
-(0.062)</t>
+          <t>6.94**
+(0.824)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.019
-(0.05)</t>
+          <t>0.769
+(0.65)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.135**
-(0.062)</t>
+          <t>6.746**
+(0.823)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.077*
-(0.046)</t>
+          <t>0.372*
+(0.599)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.126**
-(0.061)</t>
+          <t>6.31**
+(0.817)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.024
-(0.049)</t>
+          <t>0.721
+(0.641)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.118*
-(0.061)</t>
+          <t>5.508**
+(0.815)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-0.08*
-(0.046)</t>
+          <t>0.359*
+(0.592)</t>
         </is>
       </c>
     </row>
@@ -520,50 +520,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.001
-(0.001)</t>
+          <t>0.995
+(0.008)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.001
-(0.001)</t>
+          <t>1.008
+(0.007)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.001
-(0.001)</t>
+          <t>0.991
+(0.008)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0
-(0.001)</t>
+          <t>1.006
+(0.007)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0
-(0.001)</t>
+          <t>0.998
+(0.008)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.001
-(0.001)</t>
+          <t>1.008
+(0.007)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0
-(0.001)</t>
+          <t>0.995
+(0.007)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.001
-(0.001)</t>
+          <t>1.007
+(0.007)</t>
         </is>
       </c>
     </row>
@@ -575,50 +575,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.245
-(0.164)</t>
+          <t>92.817*
+(2.389)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.494***
-(0.153)</t>
+          <t>1,577.81***
+(2.209)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.273*
-(0.161)</t>
+          <t>141.617**
+(2.31)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.49***
-(0.153)</t>
+          <t>1,261.268***
+(2.18)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.234
-(0.164)</t>
+          <t>79.967*
+(2.367)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.515***
-(0.143)</t>
+          <t>2,068.297***
+(2.099)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.25
-(0.161)</t>
+          <t>91.372**
+(2.297)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.517***
-(0.143)</t>
+          <t>1,760.652***
+(2.071)</t>
         </is>
       </c>
     </row>
@@ -630,50 +630,50 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.3***
-(0.074)</t>
+          <t>0.013***
+(1.045)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.341***
-(0.068)</t>
+          <t>0.007***
+(0.996)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.27***
-(0.066)</t>
+          <t>0.017***
+(0.96)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0.307***
-(0.062)</t>
+          <t>0.011***
+(0.923)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-0.2***
-(0.058)</t>
+          <t>0.063***
+(0.782)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0.242***
-(0.05)</t>
+          <t>0.036***
+(0.708)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-0.189***
-(0.053)</t>
+          <t>0.067***
+(0.732)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.227***
-(0.047)</t>
+          <t>0.042***
+(0.675)</t>
         </is>
       </c>
     </row>
@@ -685,77 +685,77 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>1,157</t>
         </is>
       </c>
     </row>
@@ -926,164 +926,164 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>r-squared</t>
+          <t>McFadden's r-squared</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.086</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.059</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.081</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.058</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.079</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.059</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.073</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.057</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.072</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Adjusted r-squared</t>
+          <t>Adj. McFadden's r-squared</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.071</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.069</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.074</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.049</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.066</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.35e-05</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.069</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.051</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.066</t>
         </is>
       </c>
     </row>
@@ -1095,77 +1095,77 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>281.219</t>
+          <t>649.526</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>290.758</t>
+          <t>660.426</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>276.417</t>
+          <t>646.088</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>294.151</t>
+          <t>664.761</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>275.044</t>
+          <t>642.935</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>284.606</t>
+          <t>654.531</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>270.891</t>
+          <t>640.493</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>287.841</t>
+          <t>658.439</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>279.027</t>
+          <t>648.084</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>283.857</t>
+          <t>653.535</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>274.013</t>
+          <t>644.485</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>289.824</t>
+          <t>660.332</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>272.219</t>
+          <t>641.083</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>277.785</t>
+          <t>647.734</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>267.585</t>
+          <t>637.916</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:BL14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1191,188 +1191,380 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.089
-(0.061)</t>
+          <t>0.839
+(0.55)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.276***
-(0.044)</t>
+          <t>0.229***
+(0.436)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.046
-(0.06)</t>
+          <t>1.044
+(0.542)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.273***
-(0.044)</t>
+          <t>0.269***
+(0.429)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.109*
-(0.061)</t>
+          <t>0.793
+(0.548)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.25***
-(0.039)</t>
+          <t>0.215***
+(0.431)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.054
-(0.061)</t>
+          <t>0.979
+(0.54)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.226***
-(0.039)</t>
+          <t>0.249***
+(0.424)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.171***
-(0.021)</t>
+          <t>0.356***
+(0.357)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>0.071***
+(0.224)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.403**
+(0.338)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.084***
+(0.209)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.352***
+(0.353)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.071***
+(0.218)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.387***
+(0.334)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.082***
+(0.207)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1.904
+(0.46)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.324***
+(0.367)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2.892**
+(0.459)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.407**
+(0.365)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1.783
+(0.453)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.305***
+(0.361)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2.703**
+(0.452)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.38**
+(0.358)</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0.754
+(0.276)</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.1***
+(0.152)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0.994
+(0.27)</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0.124***
+(0.143)</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0.779
+(0.263)</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0.101***
+(0.149)</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0.943
+(0.265)</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.119***
+(0.14)</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0.766
+(0.555)</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.146***
+(0.416)</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>1.025
+(0.536)</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>0.182***
+(0.405)</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0.724
+(0.554)</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0.135***
+(0.409)</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0.968
+(0.533)</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0.168***
+(0.399)</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0.372**
+(0.362)</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0.053***
+(0.223)</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>0.402**
+(0.336)</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>0.063***
+(0.202)</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>0.364***
+(0.358)</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>0.054***
+(0.217)</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>0.386***
+(0.331)</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>0.062***
+(0.199)</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>1.747
+(0.459)</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>0.186***
+(0.342)</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>2.915**
+(0.45)</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>0.254***
+(0.323)</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>1.631
+(0.452)</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>0.172***
+(0.333)</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>2.75**
+(0.443)</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>0.236***
+(0.315)</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>0.778
+(0.278)</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>0.069***
+(0.149)</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>0.994
+(0.269)</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
           <t>0.089***
-(0.02)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.175***
-(0.021)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0.088***
-(0.02)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.212***
-(0.019)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.092***
-(0.012)</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.23***
-(0.019)</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.106***
-(0.012)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.091***
-(0.032)</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.059**
-(0.022)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.146***
-(0.028)</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-0.011
-(0.021)</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.092***
-(0.032)</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-0.051***
-(0.016)</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.175***
-(0.028)</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.017
-(0.012)</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.167***
-(0.021)</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.054***
-(0.019)</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.176***
-(0.021)</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0.064***
-(0.018)</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.209***
-(0.019)</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0.062***
-(0.01)</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0.228***
-(0.018)</t>
+(0.109)</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>0.775
+(0.265)</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>0.072***
+(0.138)</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>0.941
+(0.264)</t>
         </is>
       </c>
     </row>
@@ -1384,1482 +1576,3121 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.132***
-(0.038)</t>
+          <t>0.551*
+(0.31)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.201***
-(0.035)</t>
+          <t>0.253***
+(0.277)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.139***
-(0.039)</t>
+          <t>0.943
+(0.265)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.233***
-(0.035)</t>
+          <t>0.45***
+(0.23)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.147***
-(0.038)</t>
+          <t>0.552*
+(0.31)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.195***
-(0.035)</t>
+          <t>0.252***
+(0.278)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.163***
-(0.039)</t>
+          <t>0.965
+(0.264)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.226***
-(0.035)</t>
+          <t>0.456***
+(0.229)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-0.021
-(0.018)</t>
+          <t>0.621
+(0.3)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-0.083***
-(0.018)</t>
+          <t>0.269***
+(0.268)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001
-(0.016)</t>
+          <t>1.069
+(0.258)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.049***
-(0.016)</t>
+          <t>0.463***
+(0.227)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-0.04**
-(0.018)</t>
+          <t>0.677
+(0.276)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.083***
-(0.018)</t>
+          <t>0.33***
+(0.257)</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.009
-(0.016)</t>
+          <t>1.089
+(0.256)</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.048***
-(0.016)</t>
+          <t>0.476***
+(0.225)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.568*
+(0.304)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.264***
+(0.276)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1.022
+(0.259)</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.481***
+(0.227)</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.571*
+(0.304)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.263***
+(0.276)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>1.049
+(0.258)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0.487***
+(0.226)</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0.65
+(0.294)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.287***
+(0.265)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>1.183
+(0.253)</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0.505***
+(0.223)</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>0.746
+(0.267)</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0.353***
+(0.255)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>1.214
+(0.251)</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0.517***
+(0.222)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuition (thousands of dollars)</t>
+          <t>Proportion of nonwhite instructors</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.006***
-(0.001)</t>
+          <t>15.172**
+(1.064)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.01***
-(0.001)</t>
+          <t>3.096
+(0.713)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.005***
-(0.001)</t>
+          <t>24.749***
+(1)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.01***
-(0.001)</t>
+          <t>3.776**
+(0.648)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.007***
-(0.001)</t>
+          <t>14.529**
+(1.083)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.009***
-(0.001)</t>
+          <t>3.095
+(0.707)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.006***
-(0.001)</t>
+          <t>24.19***
+(1.013)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.009***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.002***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.001
-(0.001)</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.003***
-(0)</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.003***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.001**
-(0.001)</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.003***
-(0)</t>
+          <t>3.778**
+(0.642)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>22.34***
+(1.052)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4.754**
+(0.69)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>38.106***
+(0.987)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>5.549**
+(0.63)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>24.807***
+(1.058)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.912**
+(0.66)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>38.581***
+(0.994)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>5.266**
+(0.623)</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>15.217**
+(1.087)</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>2.131
+(0.705)</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>24.501***
+(1.004)</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>2.701
+(0.656)</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>14.405**
+(1.108)</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>2.128
+(0.7)</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>24.029***
+(1.014)</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>2.714
+(0.65)</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>21.624***
+(1.068)</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>3.204*
+(0.679)</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>38.712***
+(0.98)</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>4.021**
+(0.635)</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>22.103***
+(1.076)</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>3.349*
+(0.657)</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>39.464***
+(0.985)</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>3.881**
+(0.628)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nonwhite proportion of enrolled students</t>
+          <t>Proportion of expenses spent on instruction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.15***
-(0.044)</t>
+          <t>0.978**
+(0.011)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.05
-(0.038)</t>
+          <t>0.97***
+(0.01)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.197***
-(0.042)</t>
+          <t>0.975**
+(0.011)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.088**
-(0.038)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.2***
-(0.043)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.007
-(0.039)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.231***
-(0.041)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.044
-(0.038)</t>
+          <t>0.97***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.978**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.971***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.976**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.971***
+(0.01)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.167***
-(0.044)</t>
+          <t>0.973**
+(0.011)</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.021
-(0.038)</t>
+          <t>0.967***
+(0.01)</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.218***
-(0.042)</t>
+          <t>0.969***
+(0.011)</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.064*
-(0.038)</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.211***
-(0.042)</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.019
-(0.039)</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.23***
-(0.041)</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0.04
-(0.039)</t>
+          <t>0.967***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.973**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.968***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.969***
+(0.011)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.968***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.982*
+(0.011)</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.974***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.976**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0.973***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>0.982*
+(0.011)</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.976**
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0.977**
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0.975**
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>0.976**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>0.972***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>0.969***
+(0.011)</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>0.97***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>0.977**
+(0.01)</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>0.974***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>0.969***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>0.972***
+(0.009)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total enrollment at university (thousands)</t>
+          <t>Proportion of revenue coming from investments</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.002***
-(0.001)</t>
+          <t>1.022**
+(0.009)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.003***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.003***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.003***
-(0.001)</t>
+          <t>1.025**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.023**
+(0.009)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.025**
+(0.01)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.002**
-(0.001)</t>
+          <t>1.023**
+(0.009)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.003***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.003***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.003***
-(0.001)</t>
+          <t>1.026**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.024**
+(0.009)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.027**
+(0.01)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.002***
-(0.001)</t>
+          <t>1.022**
+(0.009)</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.003***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
+          <t>1.025**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.023**
+(0.009)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.026**
+(0.01)</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.001**
-(0.001)</t>
+          <t>1.024**
+(0.009)</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.002**
-(0.001)</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>0.002***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0.002***
-(0.001)</t>
+          <t>1.027**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>1.025**
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>1.028**
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>1.023**
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>1.026**
+(0.012)</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>1.023**
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>1.026**
+(0.012)</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>1.023**
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>1.027**
+(0.012)</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>1.024**
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>1.027**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>1.023**
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>1.027**
+(0.012)</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>1.023**
+(0.009)</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>1.027**
+(0.011)</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>1.024**
+(0.01)</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>1.028**
+(0.012)</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>1.025**
+(0.009)</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>1.028**
+(0.011)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proportion of Pell grant recipients</t>
+          <t>Total enrollment at university (thousands)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.306***
-(0.07)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-0.373***
-(0.068)</t>
+          <t>1.036***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.04***
+(0.008)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.182***
-(0.061)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-0.223***
-(0.06)</t>
+          <t>1.037***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.041***
+(0.008)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.505***
-(0.055)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-0.535***
-(0.054)</t>
+          <t>1.036***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.039***
+(0.008)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0.382***
-(0.048)</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-0.4***
-(0.048)</t>
+          <t>1.033***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.028***
+(0.008)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.408***
-(0.064)</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-0.484***
-(0.061)</t>
+          <t>1.04***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1.041***
+(0.008)</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.281***
-(0.055)</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-0.337***
-(0.054)</t>
+          <t>1.041***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1.042***
+(0.008)</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-0.528***
-(0.051)</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>-0.533***
-(0.051)</t>
+          <t>1.041***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1.04***
+(0.008)</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-0.415***
-(0.046)</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>-0.408***
-(0.046)</t>
+          <t>1.036***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1.03***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>1.027***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1.019**
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>1.028***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>1.019**
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>1.029***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>1.019**
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>1.029***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>1.015**
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>1.031***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>1.021**
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>1.032***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>1.021***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>1.035***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>1.022***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>1.033***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>1.017**
+(0.006)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Proportion of Pell grant recipients</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,132</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,138</t>
+          <t>0***
+(1.131)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,132</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,138</t>
+          <t>0***
+(1.103)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,132</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1,138</t>
+          <t>0***
+(1.125)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1,132</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1,138</t>
+          <t>0***
+(1.098)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1,134</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1,142</t>
+          <t>0***
+(1.132)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1,134</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1,142</t>
+          <t>0***
+(1.108)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1,134</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1,142</t>
+          <t>0***
+(1.112)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1,134</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1,152</t>
+          <t>0***
+(1.102)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1,132</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1,138</t>
+          <t>0***
+(1.167)</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1,132</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1,138</t>
+          <t>0***
+(1.142)</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1,132</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>1,138</t>
+          <t>0***
+(1.155)</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1,132</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>1,138</t>
+          <t>0***
+(1.13)</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1,134</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>1,142</t>
+          <t>0***
+(1.17)</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1,134</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1,142</t>
+          <t>0***
+(1.151)</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1,134</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>1,142</t>
+          <t>0***
+(1.146)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1,134</t>
+          <t>0***
+(1.139)</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0***
+(1.09)</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>0***
+(1.026)</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>0***
+(1.084)</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>0***
+(1.02)</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0***
+(1.085)</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>0***
+(1.015)</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>0***
+(1.078)</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>0***
+(1.008)</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>0***
+(1.124)</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>0***
+(1.062)</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>0***
+(1.112)</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>0***
+(1.048)</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>0***
+(1.121)</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>0***
+(1.056)</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>0***
+(1.109)</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>0***
+(1.04)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NAs</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1,127</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1,130</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1,127</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1,134</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1,131</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1,135</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1,131</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1,139</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1,127</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1,130</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1,127</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1,134</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1,147</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1,151</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1,147</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1,155</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1,128</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1,131</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1,128</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1,136</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1,132</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1,136</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1,132</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1,141</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1,128</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1,131</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1,128</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1,136</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1,148</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1,152</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1,148</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>1,157</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>1,127</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1,130</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>1,127</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>1,134</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>1,131</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>1,135</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>1,131</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>1,139</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>1,127</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>1,130</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>1,127</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>1,134</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>1,147</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>1,151</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>1,147</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>1,155</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>1,128</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>1,131</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>1,128</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>1,136</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>1,132</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>1,136</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>1,132</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>1,141</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>1,128</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>1,131</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>1,128</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>1,136</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>1,148</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>1,152</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>1,148</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Incidents</t>
+          <t>NAs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>32</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>11</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>34</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>31</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>34</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>26</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>30</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>26</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>30</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>r-squared</t>
+          <t>Incidents</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.109</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.077</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.093</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>93</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.072</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.093</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>93</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.088</t>
+          <t>93</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>93</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.076</t>
+          <t>93</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>93</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>93</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>93</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>93</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>93</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>93</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.089</t>
+          <t>93</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>93</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.069</t>
+          <t>93</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>93</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0.092</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0.088</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>0.072</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Adjusted r-squared</t>
+          <t>McFadden's r-squared</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.243</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.092</t>
+          <t>0.129</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.225</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>0.097</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.224</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.206</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.077</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.237</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.218</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.084</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.216</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.083</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.197</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.234</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.211</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.091</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0.215</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0.192</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0.071</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0.224</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.108</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0.199</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>0.074</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.097</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.091</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.081</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.071</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.024</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>0.203</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0.075</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0.237</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0.088</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>0.225</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>0.079</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>0.069</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>0.206</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0.233</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0.077</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>0.218</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>0.213</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>0.053</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>0.197</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>0.228</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
         <is>
           <t>0.086</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0.007</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.074</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.024</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.062</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.007</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.097</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.066</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.088</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.038</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.086</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>0.211</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>0.075</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
         <is>
           <t>0.067</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.067</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0.037</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.006</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0.087</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>8.01e-05</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>0.071</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0.006</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0.063</t>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>0.192</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>0.055</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>0.221</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>0.072</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>0.198</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>0.201</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>0.048</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>0.177</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Adj. McFadden's r-squared</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.222</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.111</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.208</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.082</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.206</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.095</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.191</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.065</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.101</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.203</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.072</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.201</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.071</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.185</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.216</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.196</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.079</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.201</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0.094</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>0.096</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0.187</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>0.065</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>0.191</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0.066</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0.169</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0.045</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>0.204</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>0.057</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0.218</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0.065</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0.206</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>0.201</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>0.188</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>0.214</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>0.074</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>0.199</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>0.066</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>0.198</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>0.183</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>0.209</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>0.189</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>0.192</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>0.171</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>BIC</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>192.956</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>202.293</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>197.321</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>217.985</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>197.37</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>196.977</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>212.045</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>216.392</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>205.477</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>277.859</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>204.907</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>290.733</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>219.74</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>270.845</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>228.508</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>281.71</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>197.792</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>228.108</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>203.18</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>255.702</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>205.103</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>221.37</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>222.938</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>251.441</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>199.691</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>292.851</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>197.866</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>293.133</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>217.598</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>286.024</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>221.769</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>558.075</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>627.857</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>562.842</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>641.915</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>563.646</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>633.493</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>569.158</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>648.342</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>555.222</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>629.767</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>560.817</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>643.649</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>562.18</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>644.612</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>567.991</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>652.533</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>557.263</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>623.528</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>565.556</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>639.486</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>562.497</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>629.196</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>571.5</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>645.858</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>556.48</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>627.625</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>566.558</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>643.633</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>563.883</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>643.058</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>573.533</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>652.216</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>554.812</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>648.082</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>555.864</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>647.34</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>560.35</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>653.914</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>562.145</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>653.511</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>550.744</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>648.763</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>553.856</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>648.471</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>557.112</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>657.951</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>561.057</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>656.725</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>553.782</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>642.341</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>558.535</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>643.213</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>558.931</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>648.18</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>564.502</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>649.284</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>551.631</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>644.597</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>559.972</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>646.222</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>558.045</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>654.178</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>567.082</t>
         </is>
       </c>
     </row>
@@ -2870,7 +4701,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,8 +4727,8 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.01
-(0.129)</t>
+          <t>0.248
+(1.825)</t>
         </is>
       </c>
     </row>
@@ -2909,184 +4740,197 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.121***
-(0.039)</t>
+          <t>0.538*
+(0.321)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuition (thousands of dollars)</t>
+          <t>Proportion of nonwhite instructors</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.006***
-(0.001)</t>
+          <t>12.972**
+(1.149)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nonwhite proportion of enrolled students</t>
+          <t>Proportion of expenses spent on instruction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.192***
-(0.057)</t>
+          <t>0.979*
+(0.011)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total enrollment at university (thousands)</t>
+          <t>Proportion of revenue coming from investments</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.002***
-(0.001)</t>
+          <t>1.021**
+(0.009)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proportion of Pell grant recipients</t>
+          <t>Total enrollment at university (thousands)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.353***
-(0.074)</t>
+          <t>1.033***
+(0.01)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>White proportion in county of university</t>
+          <t>Proportion of Pell grant recipients</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.074
-(0.068)</t>
+          <t>0***
+(1.152)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Median household income (thousands)</t>
+          <t>White proportion in county of university</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-0.002***
-(0.001)</t>
+          <t>2.382
+(0.946)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Proportion of households spending more than 30% of income on rent</t>
+          <t>Median household income (thousands)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.052
-(0.164)</t>
+          <t>0.986
+(0.009)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Proportion in county voting Republican in 2016 presidential election</t>
+          <t>Proportion of households spending more than 30% of income on rent</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-0.089
-(0.074)</t>
+          <t>77.596
+(2.729)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Proportion in county voting Republican in 2016 presidential election</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1,132</t>
+          <t>0.167
+(1.145)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NAs</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1,127</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Incidents</t>
+          <t>NAs</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>r-squared</t>
+          <t>Incidents</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.117</t>
+          <t>93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Adjusted r-squared</t>
+          <t>McFadden's r-squared</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.258</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Adj. McFadden's r-squared</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.225</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>BIC</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>210.771</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>576.105</t>
         </is>
       </c>
     </row>

--- a/docs/data-cleaning-requests/modeling/mizzou.xlsx
+++ b/docs/data-cleaning-requests/modeling/mizzou.xlsx
@@ -359,7 +359,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>university</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>county</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
